--- a/test_short/heatmaps/common_count.xlsx
+++ b/test_short/heatmaps/common_count.xlsx
@@ -496,9 +496,7 @@
           <t>pyridine</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -539,9 +537,7 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -582,9 +578,7 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>0</v>
       </c>
@@ -625,9 +619,7 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -668,9 +660,7 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>0</v>
       </c>
@@ -711,9 +701,7 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -754,9 +742,7 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -797,9 +783,7 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>0</v>
       </c>
@@ -840,9 +824,7 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -883,9 +865,7 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -926,9 +906,7 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_short/heatmaps/common_count.xlsx
+++ b/test_short/heatmaps/common_count.xlsx
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
